--- a/medicine/Mort/Cimetière_communal_de_Pantin/Cimetière_communal_de_Pantin.xlsx
+++ b/medicine/Mort/Cimetière_communal_de_Pantin/Cimetière_communal_de_Pantin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Pantin</t>
+          <t>Cimetière_communal_de_Pantin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière communal de Pantin est un des deux cimetières de la ville de Pantin, avec le cimetière parisien de Pantin[1]. Il est situé rue des Pommiers, près du fort de Romainville et est parfois appelé cimetière des Pommiers[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière communal de Pantin est un des deux cimetières de la ville de Pantin, avec le cimetière parisien de Pantin. Il est situé rue des Pommiers, près du fort de Romainville et est parfois appelé cimetière des Pommiers.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Pantin</t>
+          <t>Cimetière_communal_de_Pantin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre l'ancienne nécropole qui se trouvait autour de l'église Saint-Germain de Pantin, il s'agit du plus ancien cimetière de la ville, et, créé en 1818 à la suite du décret impérial sur les sépultures de 1804, il en recueillit les restes funèbres.
 Au contraire du cimetière parisien de Pantin et, avec quatre hectares, de superficie considérablement inférieure, il est exclusivement géré par la commune.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Pantin</t>
+          <t>Cimetière_communal_de_Pantin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Personnalités inhumées au cimetière parisien de Pantin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">• André Lagache (1885-1938), pilote automobile français, premier vainqueur des 24 Heures du Mans en 1923
 Charles Auray (1879-1938), député et sénateur socialiste
